--- a/testData/TestData.xlsx
+++ b/testData/TestData.xlsx
@@ -98,7 +98,7 @@
     <t>Password2.</t>
   </si>
   <si>
-    <t>C:\\PlaywrightAutomationGITHUB\\PlaywrightXFramework\\logging\\orderLogs.txt</t>
+    <t>./logging/orderLogs.txt</t>
   </si>
 </sst>
 </file>
@@ -106,7 +106,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +117,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -148,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -159,8 +165,8 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -170,6 +176,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,14 +488,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="28.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="73.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="28.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="73.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -503,7 +512,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
